--- a/scripts/massage_tasks/rolling.xlsx
+++ b/scripts/massage_tasks/rolling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttope\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587577E6-DD19-492D-A53A-C1518DB62B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C9AC62-6E04-4620-91CF-6F64BCA37EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1020" windowWidth="23730" windowHeight="13125" xr2:uid="{B0F23D51-9AFB-46BE-A516-0E1A80967BD2}"/>
+    <workbookView xWindow="1020" yWindow="525" windowWidth="22200" windowHeight="13305" xr2:uid="{B0F23D51-9AFB-46BE-A516-0E1A80967BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,157 +344,157 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14.88172072524449</c:v>
+                  <c:v>29.76344145048898</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.528747832739253</c:v>
+                  <c:v>29.057495665478505</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13.946647915665135</c:v>
+                  <c:v>27.893295831330271</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.144601037131251</c:v>
+                  <c:v>26.289202074262501</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.135255955100694</c:v>
+                  <c:v>24.270511910201389</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.93453064392828</c:v>
+                  <c:v>21.86906128785656</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.5613612584045384</c:v>
+                  <c:v>19.122722516809077</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.0374034992929726</c:v>
+                  <c:v>16.074806998585945</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.386691090004156</c:v>
+                  <c:v>12.773382180008312</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.6352567504333759</c:v>
+                  <c:v>9.2705135008667519</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.8107216454307276</c:v>
+                  <c:v>5.6214432908614551</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.9418597825462014</c:v>
+                  <c:v>1.8837195650924028</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.94185577124275455</c:v>
+                  <c:v>-1.8837115424855091</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.8107176973879433</c:v>
+                  <c:v>-5.6214353947758866</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-4.6352529279142063</c:v>
+                  <c:v>-9.2705058558284126</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-6.3866874532920237</c:v>
+                  <c:v>-12.773374906584047</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-8.0374001057410336</c:v>
+                  <c:v>-16.074800211482067</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-9.5613581615311212</c:v>
+                  <c:v>-19.122716323062242</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-10.934527892572902</c:v>
+                  <c:v>-21.869055785145804</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-12.135253592653893</c:v>
+                  <c:v>-24.270507185307785</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-13.144599100850199</c:v>
+                  <c:v>-26.289198201700398</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-13.946646436086162</c:v>
+                  <c:v>-27.893292872172324</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-14.528746833196191</c:v>
+                  <c:v>-29.057493666392382</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-14.881720221500737</c:v>
+                  <c:v>-29.763440443001475</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-14.999999999999806</c:v>
+                  <c:v>-29.999999999999613</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-14.881720825993114</c:v>
+                  <c:v>-29.763441651986227</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-14.528748032647735</c:v>
+                  <c:v>-29.057496065295471</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-13.946648211580809</c:v>
+                  <c:v>-27.893296423161619</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-13.144601424387355</c:v>
+                  <c:v>-26.28920284877471</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-12.135256427589962</c:v>
+                  <c:v>-24.270512855179923</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-10.934531194199263</c:v>
+                  <c:v>-21.869062388398525</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-9.561361877779154</c:v>
+                  <c:v>-19.122723755558308</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-8.0374041780032925</c:v>
+                  <c:v>-16.074808356006585</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-6.3866918173464988</c:v>
+                  <c:v>-12.773383634692998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-4.6352575149371544</c:v>
+                  <c:v>-9.2705150298743089</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.8107224350392501</c:v>
+                  <c:v>-5.6214448700785002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.94186058480688262</c:v>
+                  <c:v>-1.8837211696137652</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.94185496898207011</c:v>
+                  <c:v>1.8837099379641402</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.8107169077793208</c:v>
+                  <c:v>5.6214338155586416</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.6352521634103478</c:v>
+                  <c:v>9.2705043268206957</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.3866867259495841</c:v>
+                  <c:v>12.773373451899168</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.0373994270305662</c:v>
+                  <c:v>16.074798854061132</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.5613575421563635</c:v>
+                  <c:v>19.122715084312727</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.934527342301724</c:v>
+                  <c:v>21.869054684603448</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.135253120164419</c:v>
+                  <c:v>24.270506240328839</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>13.144598713593883</c:v>
+                  <c:v>26.289197427187766</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>13.946646140170241</c:v>
+                  <c:v>27.893292280340482</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14.528746633287456</c:v>
+                  <c:v>29.057493266574912</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>14.881720120751856</c:v>
+                  <c:v>29.763440241503712</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>14.999999999999655</c:v>
+                  <c:v>29.999999999999311</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>14.881720926741695</c:v>
+                  <c:v>29.763441853483389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,157 +656,157 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.879996876547569</c:v>
+                  <c:v>3.7599937530951379</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.7303466880002532</c:v>
+                  <c:v>7.4606933760005063</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.5218667057864907</c:v>
+                  <c:v>11.043733411572981</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.22630358998624</c:v>
+                  <c:v>14.45260717997248</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.8167773536702807</c:v>
+                  <c:v>17.633554707340561</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.268205276336921</c:v>
+                  <c:v>20.536410552673843</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.5576974733846</c:v>
+                  <c:v>23.1153949467692</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.664917883253452</c:v>
+                  <c:v>25.329835766506903</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13.572404979253365</c:v>
+                  <c:v>27.14480995850673</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14.265847148261535</c:v>
+                  <c:v>28.531694296523071</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14.734308393403037</c:v>
+                  <c:v>29.468616786806074</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14.970400801248511</c:v>
+                  <c:v>29.940801602497022</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>14.970401053618327</c:v>
+                  <c:v>29.940802107236653</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>14.734309146532464</c:v>
+                  <c:v>29.468618293064928</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14.26584839027328</c:v>
+                  <c:v>28.531696780546561</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.572406690560161</c:v>
+                  <c:v>27.144813381120322</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.664920036866953</c:v>
+                  <c:v>25.329840073733905</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.557700035341037</c:v>
+                  <c:v>23.115400070682075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.268208206232732</c:v>
+                  <c:v>20.536416412465464</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.8167806052992361</c:v>
+                  <c:v>17.633561210598472</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.2263071120682465</c:v>
+                  <c:v>14.452614224136493</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.5218704427761782</c:v>
+                  <c:v>11.043740885552356</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.7303505809630888</c:v>
+                  <c:v>7.4607011619261776</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.8800008640891801</c:v>
+                  <c:v>3.7600017281783602</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4115406793321483E-6</c:v>
+                  <c:v>4.8230813586642966E-6</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.8799960790392309</c:v>
+                  <c:v>-3.7599921580784619</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-3.7303459094076694</c:v>
+                  <c:v>-7.4606918188153388</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-5.5218659583885055</c:v>
+                  <c:v>-11.043731916777011</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-7.2263028855697673</c:v>
+                  <c:v>-14.452605771139535</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-8.8167767033444004</c:v>
+                  <c:v>-17.633553406688801</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-10.268204690357672</c:v>
+                  <c:v>-20.536409380715344</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-11.557696960993203</c:v>
+                  <c:v>-23.115393921986406</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-12.664917452530643</c:v>
+                  <c:v>-25.329834905061286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-13.572404636991902</c:v>
+                  <c:v>-27.144809273983803</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-14.265846899859069</c:v>
+                  <c:v>-28.531693799718138</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-14.734308242777027</c:v>
+                  <c:v>-29.468616485554055</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-14.970400750774417</c:v>
+                  <c:v>-29.940801501548833</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-14.97040110409216</c:v>
+                  <c:v>-29.940802208184319</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-14.73430929715823</c:v>
+                  <c:v>-29.46861859431646</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-14.265848638675504</c:v>
+                  <c:v>-28.531697277351007</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-13.572407032821385</c:v>
+                  <c:v>-27.14481406564277</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-12.66492046758955</c:v>
+                  <c:v>-25.329840935179099</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-11.557700547732219</c:v>
+                  <c:v>-23.115401095464438</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-10.268208792211814</c:v>
+                  <c:v>-20.536417584423628</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-8.8167812556249654</c:v>
+                  <c:v>-17.633562511249931</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-7.2263078164845718</c:v>
+                  <c:v>-14.452615632969144</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-5.5218711901740809</c:v>
+                  <c:v>-11.043742380348162</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-3.7303513595556086</c:v>
+                  <c:v>-7.4607027191112172</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.880001661597499</c:v>
+                  <c:v>-3.7600033231949981</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-3.2153875902064218E-6</c:v>
+                  <c:v>-6.4307751804128435E-6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.8799952815308736</c:v>
+                  <c:v>3.7599905630617472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:GS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,603 +2868,603 @@
       </c>
       <c r="AZ2">
         <f>$K$8*COS(AZ1)</f>
-        <v>14.88172072524449</v>
+        <v>29.76344145048898</v>
       </c>
       <c r="BA2">
         <f t="shared" ref="BA2:CW2" si="4">$K$8*COS(BA1)</f>
-        <v>14.528747832739253</v>
+        <v>29.057495665478505</v>
       </c>
       <c r="BB2">
         <f t="shared" si="4"/>
-        <v>13.946647915665135</v>
+        <v>27.893295831330271</v>
       </c>
       <c r="BC2">
         <f t="shared" si="4"/>
-        <v>13.144601037131251</v>
+        <v>26.289202074262501</v>
       </c>
       <c r="BD2">
         <f t="shared" si="4"/>
-        <v>12.135255955100694</v>
+        <v>24.270511910201389</v>
       </c>
       <c r="BE2">
         <f t="shared" si="4"/>
-        <v>10.93453064392828</v>
+        <v>21.86906128785656</v>
       </c>
       <c r="BF2">
         <f t="shared" si="4"/>
-        <v>9.5613612584045384</v>
+        <v>19.122722516809077</v>
       </c>
       <c r="BG2">
         <f t="shared" si="4"/>
-        <v>8.0374034992929726</v>
+        <v>16.074806998585945</v>
       </c>
       <c r="BH2">
         <f t="shared" si="4"/>
-        <v>6.386691090004156</v>
+        <v>12.773382180008312</v>
       </c>
       <c r="BI2">
         <f t="shared" si="4"/>
-        <v>4.6352567504333759</v>
+        <v>9.2705135008667519</v>
       </c>
       <c r="BJ2">
         <f t="shared" si="4"/>
-        <v>2.8107216454307276</v>
+        <v>5.6214432908614551</v>
       </c>
       <c r="BK2">
         <f t="shared" si="4"/>
-        <v>0.9418597825462014</v>
+        <v>1.8837195650924028</v>
       </c>
       <c r="BL2">
         <f t="shared" si="4"/>
-        <v>-0.94185577124275455</v>
+        <v>-1.8837115424855091</v>
       </c>
       <c r="BM2">
         <f t="shared" si="4"/>
-        <v>-2.8107176973879433</v>
+        <v>-5.6214353947758866</v>
       </c>
       <c r="BN2">
         <f t="shared" si="4"/>
-        <v>-4.6352529279142063</v>
+        <v>-9.2705058558284126</v>
       </c>
       <c r="BO2">
         <f t="shared" si="4"/>
-        <v>-6.3866874532920237</v>
+        <v>-12.773374906584047</v>
       </c>
       <c r="BP2">
         <f t="shared" si="4"/>
-        <v>-8.0374001057410336</v>
+        <v>-16.074800211482067</v>
       </c>
       <c r="BQ2">
         <f t="shared" si="4"/>
-        <v>-9.5613581615311212</v>
+        <v>-19.122716323062242</v>
       </c>
       <c r="BR2">
         <f t="shared" si="4"/>
-        <v>-10.934527892572902</v>
+        <v>-21.869055785145804</v>
       </c>
       <c r="BS2">
         <f t="shared" si="4"/>
-        <v>-12.135253592653893</v>
+        <v>-24.270507185307785</v>
       </c>
       <c r="BT2">
         <f t="shared" si="4"/>
-        <v>-13.144599100850199</v>
+        <v>-26.289198201700398</v>
       </c>
       <c r="BU2">
         <f t="shared" si="4"/>
-        <v>-13.946646436086162</v>
+        <v>-27.893292872172324</v>
       </c>
       <c r="BV2">
         <f t="shared" si="4"/>
-        <v>-14.528746833196191</v>
+        <v>-29.057493666392382</v>
       </c>
       <c r="BW2">
         <f t="shared" si="4"/>
-        <v>-14.881720221500737</v>
+        <v>-29.763440443001475</v>
       </c>
       <c r="BX2">
         <f t="shared" si="4"/>
-        <v>-14.999999999999806</v>
+        <v>-29.999999999999613</v>
       </c>
       <c r="BY2">
         <f t="shared" si="4"/>
-        <v>-14.881720825993114</v>
+        <v>-29.763441651986227</v>
       </c>
       <c r="BZ2">
         <f t="shared" si="4"/>
-        <v>-14.528748032647735</v>
+        <v>-29.057496065295471</v>
       </c>
       <c r="CA2">
         <f t="shared" si="4"/>
-        <v>-13.946648211580809</v>
+        <v>-27.893296423161619</v>
       </c>
       <c r="CB2">
         <f t="shared" si="4"/>
-        <v>-13.144601424387355</v>
+        <v>-26.28920284877471</v>
       </c>
       <c r="CC2">
         <f t="shared" si="4"/>
-        <v>-12.135256427589962</v>
+        <v>-24.270512855179923</v>
       </c>
       <c r="CD2">
         <f t="shared" si="4"/>
-        <v>-10.934531194199263</v>
+        <v>-21.869062388398525</v>
       </c>
       <c r="CE2">
         <f t="shared" si="4"/>
-        <v>-9.561361877779154</v>
+        <v>-19.122723755558308</v>
       </c>
       <c r="CF2">
         <f t="shared" si="4"/>
-        <v>-8.0374041780032925</v>
+        <v>-16.074808356006585</v>
       </c>
       <c r="CG2">
         <f t="shared" si="4"/>
-        <v>-6.3866918173464988</v>
+        <v>-12.773383634692998</v>
       </c>
       <c r="CH2">
         <f t="shared" si="4"/>
-        <v>-4.6352575149371544</v>
+        <v>-9.2705150298743089</v>
       </c>
       <c r="CI2">
         <f t="shared" si="4"/>
-        <v>-2.8107224350392501</v>
+        <v>-5.6214448700785002</v>
       </c>
       <c r="CJ2">
         <f t="shared" si="4"/>
-        <v>-0.94186058480688262</v>
+        <v>-1.8837211696137652</v>
       </c>
       <c r="CK2">
         <f t="shared" si="4"/>
-        <v>0.94185496898207011</v>
+        <v>1.8837099379641402</v>
       </c>
       <c r="CL2">
         <f t="shared" si="4"/>
-        <v>2.8107169077793208</v>
+        <v>5.6214338155586416</v>
       </c>
       <c r="CM2">
         <f t="shared" si="4"/>
-        <v>4.6352521634103478</v>
+        <v>9.2705043268206957</v>
       </c>
       <c r="CN2">
         <f t="shared" si="4"/>
-        <v>6.3866867259495841</v>
+        <v>12.773373451899168</v>
       </c>
       <c r="CO2">
         <f t="shared" si="4"/>
-        <v>8.0373994270305662</v>
+        <v>16.074798854061132</v>
       </c>
       <c r="CP2">
         <f t="shared" si="4"/>
-        <v>9.5613575421563635</v>
+        <v>19.122715084312727</v>
       </c>
       <c r="CQ2">
         <f t="shared" si="4"/>
-        <v>10.934527342301724</v>
+        <v>21.869054684603448</v>
       </c>
       <c r="CR2">
         <f t="shared" si="4"/>
-        <v>12.135253120164419</v>
+        <v>24.270506240328839</v>
       </c>
       <c r="CS2">
         <f t="shared" si="4"/>
-        <v>13.144598713593883</v>
+        <v>26.289197427187766</v>
       </c>
       <c r="CT2">
         <f t="shared" si="4"/>
-        <v>13.946646140170241</v>
+        <v>27.893292280340482</v>
       </c>
       <c r="CU2">
         <f t="shared" si="4"/>
-        <v>14.528746633287456</v>
+        <v>29.057493266574912</v>
       </c>
       <c r="CV2">
         <f t="shared" si="4"/>
-        <v>14.881720120751856</v>
+        <v>29.763440241503712</v>
       </c>
       <c r="CW2">
         <f t="shared" si="4"/>
-        <v>14.999999999999655</v>
+        <v>29.999999999999311</v>
       </c>
       <c r="CX2">
         <f t="shared" ref="CX2:FI2" si="5">$K$8*COS(CX1)</f>
-        <v>14.881720926741695</v>
+        <v>29.763441853483389</v>
       </c>
       <c r="CY2">
         <f t="shared" si="5"/>
-        <v>14.528748232556184</v>
+        <v>29.057496465112369</v>
       </c>
       <c r="CZ2">
         <f t="shared" si="5"/>
-        <v>13.946648507496439</v>
+        <v>27.893297014992879</v>
       </c>
       <c r="DA2">
         <f t="shared" si="5"/>
-        <v>13.144601811643405</v>
+        <v>26.289203623286809</v>
       </c>
       <c r="DB2">
         <f t="shared" si="5"/>
-        <v>12.135256900079176</v>
+        <v>24.270513800158351</v>
       </c>
       <c r="DC2">
         <f t="shared" si="5"/>
-        <v>10.93453174447022</v>
+        <v>21.869063488940441</v>
       </c>
       <c r="DD2">
         <f t="shared" si="5"/>
-        <v>9.5613624971537181</v>
+        <v>19.122724994307436</v>
       </c>
       <c r="DE2">
         <f t="shared" si="5"/>
-        <v>8.0374048567135983</v>
+        <v>16.074809713427197</v>
       </c>
       <c r="DF2">
         <f t="shared" si="5"/>
-        <v>6.3866925446888594</v>
+        <v>12.773385089377719</v>
       </c>
       <c r="DG2">
         <f t="shared" si="5"/>
-        <v>4.6352582794409196</v>
+        <v>9.2705165588818392</v>
       </c>
       <c r="DH2">
         <f t="shared" si="5"/>
-        <v>2.81072322464779</v>
+        <v>5.62144644929558</v>
       </c>
       <c r="DI2">
         <f t="shared" si="5"/>
-        <v>0.94186138706754785</v>
+        <v>1.8837227741350957</v>
       </c>
       <c r="DJ2">
         <f t="shared" si="5"/>
-        <v>-0.94185416672135669</v>
+        <v>-1.8837083334427134</v>
       </c>
       <c r="DK2">
         <f t="shared" si="5"/>
-        <v>-2.8107161181707681</v>
+        <v>-5.6214322363415361</v>
       </c>
       <c r="DL2">
         <f t="shared" si="5"/>
-        <v>-4.6352513989064246</v>
+        <v>-9.2705027978128491</v>
       </c>
       <c r="DM2">
         <f t="shared" si="5"/>
-        <v>-6.386685998607077</v>
+        <v>-12.773371997214154</v>
       </c>
       <c r="DN2">
         <f t="shared" si="5"/>
-        <v>-8.0373987483201201</v>
+        <v>-16.07479749664024</v>
       </c>
       <c r="DO2">
         <f t="shared" si="5"/>
-        <v>-9.5613569227815365</v>
+        <v>-19.122713845563073</v>
       </c>
       <c r="DP2">
         <f t="shared" si="5"/>
-        <v>-10.934526792030551</v>
+        <v>-21.869053584061103</v>
       </c>
       <c r="DQ2">
         <f t="shared" si="5"/>
-        <v>-12.135252647674911</v>
+        <v>-24.270505295349821</v>
       </c>
       <c r="DR2">
         <f t="shared" si="5"/>
-        <v>-13.144598326337517</v>
+        <v>-26.289196652675034</v>
       </c>
       <c r="DS2">
         <f t="shared" si="5"/>
-        <v>-13.946645844254292</v>
+        <v>-27.893291688508583</v>
       </c>
       <c r="DT2">
         <f t="shared" si="5"/>
-        <v>-14.528746433378675</v>
+        <v>-29.05749286675735</v>
       </c>
       <c r="DU2">
         <f t="shared" si="5"/>
-        <v>-14.881720020002936</v>
+        <v>-29.763440040005872</v>
       </c>
       <c r="DV2">
         <f t="shared" si="5"/>
-        <v>-14.999999999999462</v>
+        <v>-29.999999999998924</v>
       </c>
       <c r="DW2">
         <f t="shared" si="5"/>
-        <v>-14.881721027490228</v>
+        <v>-29.763442054980455</v>
       </c>
       <c r="DX2">
         <f t="shared" si="5"/>
-        <v>-14.528748432464591</v>
+        <v>-29.057496864929181</v>
       </c>
       <c r="DY2">
         <f t="shared" si="5"/>
-        <v>-13.946648803412028</v>
+        <v>-27.893297606824056</v>
       </c>
       <c r="DZ2">
         <f t="shared" si="5"/>
-        <v>-13.144602198899408</v>
+        <v>-26.289204397798816</v>
       </c>
       <c r="EA2">
         <f t="shared" si="5"/>
-        <v>-12.135257372568372</v>
+        <v>-24.270514745136744</v>
       </c>
       <c r="EB2">
         <f t="shared" si="5"/>
-        <v>-10.93453229474113</v>
+        <v>-21.86906458948226</v>
       </c>
       <c r="EC2">
         <f t="shared" si="5"/>
-        <v>-9.5613631165282982</v>
+        <v>-19.122726233056596</v>
       </c>
       <c r="ED2">
         <f t="shared" si="5"/>
-        <v>-8.0374055354238809</v>
+        <v>-16.074811070847762</v>
       </c>
       <c r="EE2">
         <f t="shared" si="5"/>
-        <v>-6.3866932720312004</v>
+        <v>-12.773386544062401</v>
       </c>
       <c r="EF2">
         <f t="shared" si="5"/>
-        <v>-4.6352590439446972</v>
+        <v>-9.2705180878893945</v>
       </c>
       <c r="EG2">
         <f t="shared" si="5"/>
-        <v>-2.8107240142562961</v>
+        <v>-5.6214480285125923</v>
       </c>
       <c r="EH2">
         <f t="shared" si="5"/>
-        <v>-0.9418621893282636</v>
+        <v>-1.8837243786565272</v>
       </c>
       <c r="EI2">
         <f t="shared" si="5"/>
-        <v>0.9418533644606405</v>
+        <v>1.883706728921281</v>
       </c>
       <c r="EJ2">
         <f t="shared" si="5"/>
-        <v>2.8107153285621549</v>
+        <v>5.6214306571243098</v>
       </c>
       <c r="EK2">
         <f t="shared" si="5"/>
-        <v>4.6352506344025644</v>
+        <v>9.2705012688051287</v>
       </c>
       <c r="EL2">
         <f t="shared" si="5"/>
-        <v>6.3866852712645761</v>
+        <v>12.773370542529152</v>
       </c>
       <c r="EM2">
         <f t="shared" si="5"/>
-        <v>8.0373980696095835</v>
+        <v>16.074796139219167</v>
       </c>
       <c r="EN2">
         <f t="shared" si="5"/>
-        <v>9.5613563034067237</v>
+        <v>19.122712606813447</v>
       </c>
       <c r="EO2">
         <f t="shared" si="5"/>
-        <v>10.934526241759309</v>
+        <v>21.869052483518619</v>
       </c>
       <c r="EP2">
         <f t="shared" si="5"/>
-        <v>12.135252175185398</v>
+        <v>24.270504350370796</v>
       </c>
       <c r="EQ2">
         <f t="shared" si="5"/>
-        <v>13.144597939081113</v>
+        <v>26.289195878162225</v>
       </c>
       <c r="ER2">
         <f t="shared" si="5"/>
-        <v>13.946645548338291</v>
+        <v>27.893291096676581</v>
       </c>
       <c r="ES2">
         <f t="shared" si="5"/>
-        <v>14.528746233469857</v>
+        <v>29.057492466939713</v>
       </c>
       <c r="ET2">
         <f t="shared" si="5"/>
-        <v>14.881719919253975</v>
+        <v>29.763439838507949</v>
       </c>
       <c r="EU2">
         <f t="shared" si="5"/>
-        <v>14.999999999999224</v>
+        <v>29.999999999998447</v>
       </c>
       <c r="EV2">
         <f t="shared" si="5"/>
-        <v>14.881721128238725</v>
+        <v>29.76344225647745</v>
       </c>
       <c r="EW2">
         <f t="shared" si="5"/>
-        <v>14.528748632372949</v>
+        <v>29.057497264745898</v>
       </c>
       <c r="EX2">
         <f t="shared" si="5"/>
-        <v>13.946649099327589</v>
+        <v>27.893298198655177</v>
       </c>
       <c r="EY2">
         <f t="shared" si="5"/>
-        <v>13.144602586155397</v>
+        <v>26.289205172310794</v>
       </c>
       <c r="EZ2">
         <f t="shared" si="5"/>
-        <v>12.135257845057501</v>
+        <v>24.270515690115001</v>
       </c>
       <c r="FA2">
         <f t="shared" si="5"/>
-        <v>10.934532845012027</v>
+        <v>21.869065690024055</v>
       </c>
       <c r="FB2">
         <f t="shared" si="5"/>
-        <v>9.5613637359027894</v>
+        <v>19.122727471805579</v>
       </c>
       <c r="FC2">
         <f t="shared" si="5"/>
-        <v>8.0374062141341405</v>
+        <v>16.074812428268281</v>
       </c>
       <c r="FD2">
         <f t="shared" si="5"/>
-        <v>6.3866939993735246</v>
+        <v>12.773387998747049</v>
       </c>
       <c r="FE2">
         <f t="shared" si="5"/>
-        <v>4.6352598084484606</v>
+        <v>9.2705196168969213</v>
       </c>
       <c r="FF2">
         <f t="shared" si="5"/>
-        <v>2.8107248038648205</v>
+        <v>5.621449607729641</v>
       </c>
       <c r="FG2">
         <f t="shared" si="5"/>
-        <v>0.94186299158889675</v>
+        <v>1.8837259831777935</v>
       </c>
       <c r="FH2">
         <f t="shared" si="5"/>
-        <v>-0.94185256219992164</v>
+        <v>-1.8837051243998433</v>
       </c>
       <c r="FI2">
         <f t="shared" si="5"/>
-        <v>-2.8107145389535337</v>
+        <v>-5.6214290779070675</v>
       </c>
       <c r="FJ2">
         <f t="shared" ref="FJ2:GS2" si="6">$K$8*COS(FJ1)</f>
-        <v>-4.6352498698986411</v>
+        <v>-9.2704997397972821</v>
       </c>
       <c r="FK2">
         <f t="shared" si="6"/>
-        <v>-6.3866845439220326</v>
+        <v>-12.773369087844065</v>
       </c>
       <c r="FL2">
         <f t="shared" si="6"/>
-        <v>-8.0373973908990468</v>
+        <v>-16.074794781798094</v>
       </c>
       <c r="FM2">
         <f t="shared" si="6"/>
-        <v>-9.5613556840319038</v>
+        <v>-19.122711368063808</v>
       </c>
       <c r="FN2">
         <f t="shared" si="6"/>
-        <v>-10.934525691488036</v>
+        <v>-21.869051382976071</v>
       </c>
       <c r="FO2">
         <f t="shared" si="6"/>
-        <v>-12.135251702695818</v>
+        <v>-24.270503405391636</v>
       </c>
       <c r="FP2">
         <f t="shared" si="6"/>
-        <v>-13.14459755182467</v>
+        <v>-26.289195103649341</v>
       </c>
       <c r="FQ2">
         <f t="shared" si="6"/>
-        <v>-13.946645252422272</v>
+        <v>-27.893290504844543</v>
       </c>
       <c r="FR2">
         <f t="shared" si="6"/>
-        <v>-14.528746033560992</v>
+        <v>-29.057492067121984</v>
       </c>
       <c r="FS2">
         <f t="shared" si="6"/>
-        <v>-14.881719818504966</v>
+        <v>-29.763439637009931</v>
       </c>
       <c r="FT2">
         <f t="shared" si="6"/>
-        <v>-14.999999999998945</v>
+        <v>-29.99999999999789</v>
       </c>
       <c r="FU2">
         <f t="shared" si="6"/>
-        <v>-14.881721228987171</v>
+        <v>-29.763442457974342</v>
       </c>
       <c r="FV2">
         <f t="shared" si="6"/>
-        <v>-14.528748832281272</v>
+        <v>-29.057497664562543</v>
       </c>
       <c r="FW2">
         <f t="shared" si="6"/>
-        <v>-13.946649395243128</v>
+        <v>-27.893298790486256</v>
       </c>
       <c r="FX2">
         <f t="shared" si="6"/>
-        <v>-13.144602973411347</v>
+        <v>-26.289205946822694</v>
       </c>
       <c r="FY2">
         <f t="shared" si="6"/>
-        <v>-12.135258317546626</v>
+        <v>-24.270516635093252</v>
       </c>
       <c r="FZ2">
         <f t="shared" si="6"/>
-        <v>-10.934533395282891</v>
+        <v>-21.869066790565782</v>
       </c>
       <c r="GA2">
         <f t="shared" si="6"/>
-        <v>-9.5613643552772505</v>
+        <v>-19.122728710554501</v>
       </c>
       <c r="GB2">
         <f t="shared" si="6"/>
-        <v>-8.0374068928443343</v>
+        <v>-16.074813785688669</v>
       </c>
       <c r="GC2">
         <f t="shared" si="6"/>
-        <v>-6.3866947267158292</v>
+        <v>-12.773389453431658</v>
       </c>
       <c r="GD2">
         <f t="shared" si="6"/>
-        <v>-4.6352605729522116</v>
+        <v>-9.2705211459044232</v>
       </c>
       <c r="GE2">
         <f t="shared" si="6"/>
-        <v>-2.8107255934732844</v>
+        <v>-5.6214511869465689</v>
       </c>
       <c r="GF2">
         <f t="shared" si="6"/>
-        <v>-0.94186379384958063</v>
+        <v>-1.8837275876991613</v>
       </c>
       <c r="GG2">
         <f t="shared" si="6"/>
-        <v>0.94185175993920001</v>
+        <v>1.8837035198784</v>
       </c>
       <c r="GH2">
         <f t="shared" si="6"/>
-        <v>2.8107137493449574</v>
+        <v>5.6214274986899149</v>
       </c>
       <c r="GI2">
         <f t="shared" si="6"/>
-        <v>4.6352491053947036</v>
+        <v>9.2704982107894072</v>
       </c>
       <c r="GJ2">
         <f t="shared" si="6"/>
-        <v>6.3866838165794704</v>
+        <v>12.773367633158941</v>
       </c>
       <c r="GK2">
         <f t="shared" si="6"/>
-        <v>8.0373967121885297</v>
+        <v>16.074793424377059</v>
       </c>
       <c r="GL2">
         <f t="shared" si="6"/>
-        <v>9.5613550646570147</v>
+        <v>19.122710129314029</v>
       </c>
       <c r="GM2">
         <f t="shared" si="6"/>
-        <v>10.934525141216731</v>
+        <v>21.869050282433463</v>
       </c>
       <c r="GN2">
         <f t="shared" si="6"/>
-        <v>12.135251230206205</v>
+        <v>24.270502460412409</v>
       </c>
       <c r="GO2">
         <f t="shared" si="6"/>
-        <v>13.144597164568216</v>
+        <v>26.289194329136432</v>
       </c>
       <c r="GP2">
         <f t="shared" si="6"/>
-        <v>13.946644956506191</v>
+        <v>27.893289913012381</v>
       </c>
       <c r="GQ2">
         <f t="shared" si="6"/>
-        <v>14.528745833652085</v>
+        <v>29.05749166730417</v>
       </c>
       <c r="GR2">
         <f t="shared" si="6"/>
-        <v>14.881719717755921</v>
+        <v>29.763439435511842</v>
       </c>
       <c r="GS2">
         <f t="shared" si="6"/>
-        <v>14.999999999998622</v>
+        <v>29.999999999997243</v>
       </c>
     </row>
     <row r="3" spans="1:201" x14ac:dyDescent="0.25">
@@ -3623,603 +3623,603 @@
       </c>
       <c r="AZ3">
         <f>$K$8*SIN(AZ1)</f>
-        <v>1.879996876547569</v>
+        <v>3.7599937530951379</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:CW3" si="7">$K$8*SIN(BA1)</f>
-        <v>3.7303466880002532</v>
+        <v>7.4606933760005063</v>
       </c>
       <c r="BB3">
         <f t="shared" si="7"/>
-        <v>5.5218667057864907</v>
+        <v>11.043733411572981</v>
       </c>
       <c r="BC3">
         <f t="shared" si="7"/>
-        <v>7.22630358998624</v>
+        <v>14.45260717997248</v>
       </c>
       <c r="BD3">
         <f t="shared" si="7"/>
-        <v>8.8167773536702807</v>
+        <v>17.633554707340561</v>
       </c>
       <c r="BE3">
         <f t="shared" si="7"/>
-        <v>10.268205276336921</v>
+        <v>20.536410552673843</v>
       </c>
       <c r="BF3">
         <f t="shared" si="7"/>
-        <v>11.5576974733846</v>
+        <v>23.1153949467692</v>
       </c>
       <c r="BG3">
         <f t="shared" si="7"/>
-        <v>12.664917883253452</v>
+        <v>25.329835766506903</v>
       </c>
       <c r="BH3">
         <f t="shared" si="7"/>
-        <v>13.572404979253365</v>
+        <v>27.14480995850673</v>
       </c>
       <c r="BI3">
         <f t="shared" si="7"/>
-        <v>14.265847148261535</v>
+        <v>28.531694296523071</v>
       </c>
       <c r="BJ3">
         <f t="shared" si="7"/>
-        <v>14.734308393403037</v>
+        <v>29.468616786806074</v>
       </c>
       <c r="BK3">
         <f t="shared" si="7"/>
-        <v>14.970400801248511</v>
+        <v>29.940801602497022</v>
       </c>
       <c r="BL3">
         <f t="shared" si="7"/>
-        <v>14.970401053618327</v>
+        <v>29.940802107236653</v>
       </c>
       <c r="BM3">
         <f t="shared" si="7"/>
-        <v>14.734309146532464</v>
+        <v>29.468618293064928</v>
       </c>
       <c r="BN3">
         <f t="shared" si="7"/>
-        <v>14.26584839027328</v>
+        <v>28.531696780546561</v>
       </c>
       <c r="BO3">
         <f t="shared" si="7"/>
-        <v>13.572406690560161</v>
+        <v>27.144813381120322</v>
       </c>
       <c r="BP3">
         <f t="shared" si="7"/>
-        <v>12.664920036866953</v>
+        <v>25.329840073733905</v>
       </c>
       <c r="BQ3">
         <f t="shared" si="7"/>
-        <v>11.557700035341037</v>
+        <v>23.115400070682075</v>
       </c>
       <c r="BR3">
         <f t="shared" si="7"/>
-        <v>10.268208206232732</v>
+        <v>20.536416412465464</v>
       </c>
       <c r="BS3">
         <f t="shared" si="7"/>
-        <v>8.8167806052992361</v>
+        <v>17.633561210598472</v>
       </c>
       <c r="BT3">
         <f t="shared" si="7"/>
-        <v>7.2263071120682465</v>
+        <v>14.452614224136493</v>
       </c>
       <c r="BU3">
         <f t="shared" si="7"/>
-        <v>5.5218704427761782</v>
+        <v>11.043740885552356</v>
       </c>
       <c r="BV3">
         <f t="shared" si="7"/>
-        <v>3.7303505809630888</v>
+        <v>7.4607011619261776</v>
       </c>
       <c r="BW3">
         <f t="shared" si="7"/>
-        <v>1.8800008640891801</v>
+        <v>3.7600017281783602</v>
       </c>
       <c r="BX3">
         <f t="shared" si="7"/>
-        <v>2.4115406793321483E-6</v>
+        <v>4.8230813586642966E-6</v>
       </c>
       <c r="BY3">
         <f t="shared" si="7"/>
-        <v>-1.8799960790392309</v>
+        <v>-3.7599921580784619</v>
       </c>
       <c r="BZ3">
         <f t="shared" si="7"/>
-        <v>-3.7303459094076694</v>
+        <v>-7.4606918188153388</v>
       </c>
       <c r="CA3">
         <f t="shared" si="7"/>
-        <v>-5.5218659583885055</v>
+        <v>-11.043731916777011</v>
       </c>
       <c r="CB3">
         <f t="shared" si="7"/>
-        <v>-7.2263028855697673</v>
+        <v>-14.452605771139535</v>
       </c>
       <c r="CC3">
         <f t="shared" si="7"/>
-        <v>-8.8167767033444004</v>
+        <v>-17.633553406688801</v>
       </c>
       <c r="CD3">
         <f t="shared" si="7"/>
-        <v>-10.268204690357672</v>
+        <v>-20.536409380715344</v>
       </c>
       <c r="CE3">
         <f t="shared" si="7"/>
-        <v>-11.557696960993203</v>
+        <v>-23.115393921986406</v>
       </c>
       <c r="CF3">
         <f t="shared" si="7"/>
-        <v>-12.664917452530643</v>
+        <v>-25.329834905061286</v>
       </c>
       <c r="CG3">
         <f t="shared" si="7"/>
-        <v>-13.572404636991902</v>
+        <v>-27.144809273983803</v>
       </c>
       <c r="CH3">
         <f t="shared" si="7"/>
-        <v>-14.265846899859069</v>
+        <v>-28.531693799718138</v>
       </c>
       <c r="CI3">
         <f t="shared" si="7"/>
-        <v>-14.734308242777027</v>
+        <v>-29.468616485554055</v>
       </c>
       <c r="CJ3">
         <f t="shared" si="7"/>
-        <v>-14.970400750774417</v>
+        <v>-29.940801501548833</v>
       </c>
       <c r="CK3">
         <f t="shared" si="7"/>
-        <v>-14.97040110409216</v>
+        <v>-29.940802208184319</v>
       </c>
       <c r="CL3">
         <f t="shared" si="7"/>
-        <v>-14.73430929715823</v>
+        <v>-29.46861859431646</v>
       </c>
       <c r="CM3">
         <f t="shared" si="7"/>
-        <v>-14.265848638675504</v>
+        <v>-28.531697277351007</v>
       </c>
       <c r="CN3">
         <f t="shared" si="7"/>
-        <v>-13.572407032821385</v>
+        <v>-27.14481406564277</v>
       </c>
       <c r="CO3">
         <f t="shared" si="7"/>
-        <v>-12.66492046758955</v>
+        <v>-25.329840935179099</v>
       </c>
       <c r="CP3">
         <f t="shared" si="7"/>
-        <v>-11.557700547732219</v>
+        <v>-23.115401095464438</v>
       </c>
       <c r="CQ3">
         <f t="shared" si="7"/>
-        <v>-10.268208792211814</v>
+        <v>-20.536417584423628</v>
       </c>
       <c r="CR3">
         <f t="shared" si="7"/>
-        <v>-8.8167812556249654</v>
+        <v>-17.633562511249931</v>
       </c>
       <c r="CS3">
         <f t="shared" si="7"/>
-        <v>-7.2263078164845718</v>
+        <v>-14.452615632969144</v>
       </c>
       <c r="CT3">
         <f t="shared" si="7"/>
-        <v>-5.5218711901740809</v>
+        <v>-11.043742380348162</v>
       </c>
       <c r="CU3">
         <f t="shared" si="7"/>
-        <v>-3.7303513595556086</v>
+        <v>-7.4607027191112172</v>
       </c>
       <c r="CV3">
         <f t="shared" si="7"/>
-        <v>-1.880001661597499</v>
+        <v>-3.7600033231949981</v>
       </c>
       <c r="CW3">
         <f t="shared" si="7"/>
-        <v>-3.2153875902064218E-6</v>
+        <v>-6.4307751804128435E-6</v>
       </c>
       <c r="CX3">
         <f t="shared" ref="CX3:FI3" si="8">$K$8*SIN(CX1)</f>
-        <v>1.8799952815308736</v>
+        <v>3.7599905630617472</v>
       </c>
       <c r="CY3">
         <f t="shared" si="8"/>
-        <v>3.7303451308150488</v>
+        <v>7.4606902616300976</v>
       </c>
       <c r="CZ3">
         <f t="shared" si="8"/>
-        <v>5.5218652109905166</v>
+        <v>11.043730421981033</v>
       </c>
       <c r="DA3">
         <f t="shared" si="8"/>
-        <v>7.2263021811532973</v>
+        <v>14.452604362306595</v>
       </c>
       <c r="DB3">
         <f t="shared" si="8"/>
-        <v>8.8167760530185149</v>
+        <v>17.63355210603703</v>
       </c>
       <c r="DC3">
         <f t="shared" si="8"/>
-        <v>10.268204104378382</v>
+        <v>20.536408208756765</v>
       </c>
       <c r="DD3">
         <f t="shared" si="8"/>
-        <v>11.557696448601789</v>
+        <v>23.115392897203577</v>
       </c>
       <c r="DE3">
         <f t="shared" si="8"/>
-        <v>12.664917021807788</v>
+        <v>25.329834043615577</v>
       </c>
       <c r="DF3">
         <f t="shared" si="8"/>
-        <v>13.572404294730383</v>
+        <v>27.144808589460766</v>
       </c>
       <c r="DG3">
         <f t="shared" si="8"/>
-        <v>14.265846651456563</v>
+        <v>28.531693302913126</v>
       </c>
       <c r="DH3">
         <f t="shared" si="8"/>
-        <v>14.734308092150968</v>
+        <v>29.468616184301936</v>
       </c>
       <c r="DI3">
         <f t="shared" si="8"/>
-        <v>14.970400700300281</v>
+        <v>29.940801400600563</v>
       </c>
       <c r="DJ3">
         <f t="shared" si="8"/>
-        <v>14.970401154565954</v>
+        <v>29.940802309131907</v>
       </c>
       <c r="DK3">
         <f t="shared" si="8"/>
-        <v>14.734309447783939</v>
+        <v>29.468618895567879</v>
       </c>
       <c r="DL3">
         <f t="shared" si="8"/>
-        <v>14.265848887077698</v>
+        <v>28.531697774155397</v>
       </c>
       <c r="DM3">
         <f t="shared" si="8"/>
-        <v>13.572407375082591</v>
+        <v>27.144814750165182</v>
       </c>
       <c r="DN3">
         <f t="shared" si="8"/>
-        <v>12.664920898312085</v>
+        <v>25.329841796624169</v>
       </c>
       <c r="DO3">
         <f t="shared" si="8"/>
-        <v>11.557701060123401</v>
+        <v>23.115402120246802</v>
       </c>
       <c r="DP3">
         <f t="shared" si="8"/>
-        <v>10.268209378190829</v>
+        <v>20.536418756381657</v>
       </c>
       <c r="DQ3">
         <f t="shared" si="8"/>
-        <v>8.816781905950668</v>
+        <v>17.633563811901336</v>
       </c>
       <c r="DR3">
         <f t="shared" si="8"/>
-        <v>7.2263085209008997</v>
+        <v>14.452617041801799</v>
       </c>
       <c r="DS3">
         <f t="shared" si="8"/>
-        <v>5.5218719375719427</v>
+        <v>11.043743875143885</v>
       </c>
       <c r="DT3">
         <f t="shared" si="8"/>
-        <v>3.730352138148143</v>
+        <v>7.4607042762962861</v>
       </c>
       <c r="DU3">
         <f t="shared" si="8"/>
-        <v>1.8800024591057864</v>
+        <v>3.7600049182115729</v>
       </c>
       <c r="DV3">
         <f t="shared" si="8"/>
-        <v>4.0192345010806859E-6</v>
+        <v>8.0384690021613718E-6</v>
       </c>
       <c r="DW3">
         <f t="shared" si="8"/>
-        <v>-1.8799944840225375</v>
+        <v>-3.7599889680450751</v>
       </c>
       <c r="DX3">
         <f t="shared" si="8"/>
-        <v>-3.7303443522224176</v>
+        <v>-7.4606887044448351</v>
       </c>
       <c r="DY3">
         <f t="shared" si="8"/>
-        <v>-5.5218644635925127</v>
+        <v>-11.043728927185025</v>
       </c>
       <c r="DZ3">
         <f t="shared" si="8"/>
-        <v>-7.226301476736829</v>
+        <v>-14.452602953473658</v>
       </c>
       <c r="EA3">
         <f t="shared" si="8"/>
-        <v>-8.8167754026925849</v>
+        <v>-17.63355080538517</v>
       </c>
       <c r="EB3">
         <f t="shared" si="8"/>
-        <v>-10.268203518399082</v>
+        <v>-20.536407036798163</v>
       </c>
       <c r="EC3">
         <f t="shared" si="8"/>
-        <v>-11.557695936210308</v>
+        <v>-23.115391872420616</v>
       </c>
       <c r="ED3">
         <f t="shared" si="8"/>
-        <v>-12.6649165910849</v>
+        <v>-25.3298331821698</v>
       </c>
       <c r="EE3">
         <f t="shared" si="8"/>
-        <v>-13.572403952468825</v>
+        <v>-27.14480790493765</v>
       </c>
       <c r="EF3">
         <f t="shared" si="8"/>
-        <v>-14.265846403054006</v>
+        <v>-28.531692806108012</v>
       </c>
       <c r="EG3">
         <f t="shared" si="8"/>
-        <v>-14.734307941524873</v>
+        <v>-29.468615883049747</v>
       </c>
       <c r="EH3">
         <f t="shared" si="8"/>
-        <v>-14.970400649826102</v>
+        <v>-29.940801299652204</v>
       </c>
       <c r="EI3">
         <f t="shared" si="8"/>
-        <v>-14.970401205039702</v>
+        <v>-29.940802410079403</v>
       </c>
       <c r="EJ3">
         <f t="shared" si="8"/>
-        <v>-14.734309598409615</v>
+        <v>-29.46861919681923</v>
       </c>
       <c r="EK3">
         <f t="shared" si="8"/>
-        <v>-14.265849135479831</v>
+        <v>-28.531698270959662</v>
       </c>
       <c r="EL3">
         <f t="shared" si="8"/>
-        <v>-13.572407717343747</v>
+        <v>-27.144815434687494</v>
       </c>
       <c r="EM3">
         <f t="shared" si="8"/>
-        <v>-12.664921329034623</v>
+        <v>-25.329842658069246</v>
       </c>
       <c r="EN3">
         <f t="shared" si="8"/>
-        <v>-11.557701572514516</v>
+        <v>-23.115403145029031</v>
       </c>
       <c r="EO3">
         <f t="shared" si="8"/>
-        <v>-10.268209964169854</v>
+        <v>-20.536419928339708</v>
       </c>
       <c r="EP3">
         <f t="shared" si="8"/>
-        <v>-8.8167825562763014</v>
+        <v>-17.633565112552603</v>
       </c>
       <c r="EQ3">
         <f t="shared" si="8"/>
-        <v>-7.2263092253172063</v>
+        <v>-14.452618450634413</v>
       </c>
       <c r="ER3">
         <f t="shared" si="8"/>
-        <v>-5.5218726849698125</v>
+        <v>-11.043745369939625</v>
       </c>
       <c r="ES3">
         <f t="shared" si="8"/>
-        <v>-3.7303529167406411</v>
+        <v>-7.4607058334812821</v>
       </c>
       <c r="ET3">
         <f t="shared" si="8"/>
-        <v>-1.8800032566140688</v>
+        <v>-3.7600065132281375</v>
       </c>
       <c r="EU3">
         <f t="shared" si="8"/>
-        <v>-4.8230813586642339E-6</v>
+        <v>-9.6461627173284678E-6</v>
       </c>
       <c r="EV3">
         <f t="shared" si="8"/>
-        <v>1.87999368651417</v>
+        <v>3.75998737302834</v>
       </c>
       <c r="EW3">
         <f t="shared" si="8"/>
-        <v>3.7303435736298018</v>
+        <v>7.4606871472596037</v>
       </c>
       <c r="EX3">
         <f t="shared" si="8"/>
-        <v>5.521863716194467</v>
+        <v>11.043727432388934</v>
       </c>
       <c r="EY3">
         <f t="shared" si="8"/>
-        <v>7.2263007723202941</v>
+        <v>14.452601544640588</v>
       </c>
       <c r="EZ3">
         <f t="shared" si="8"/>
-        <v>8.8167747523666726</v>
+        <v>17.633549504733345</v>
       </c>
       <c r="FA3">
         <f t="shared" si="8"/>
-        <v>10.268202932419733</v>
+        <v>20.536405864839466</v>
       </c>
       <c r="FB3">
         <f t="shared" si="8"/>
-        <v>11.557695423818846</v>
+        <v>23.115390847637691</v>
       </c>
       <c r="FC3">
         <f t="shared" si="8"/>
-        <v>12.664916160361974</v>
+        <v>25.329832320723948</v>
       </c>
       <c r="FD3">
         <f t="shared" si="8"/>
-        <v>13.572403610207228</v>
+        <v>27.144807220414457</v>
       </c>
       <c r="FE3">
         <f t="shared" si="8"/>
-        <v>14.265846154651406</v>
+        <v>28.531692309302812</v>
       </c>
       <c r="FF3">
         <f t="shared" si="8"/>
-        <v>14.734307790898733</v>
+        <v>29.468615581797465</v>
       </c>
       <c r="FG3">
         <f t="shared" si="8"/>
-        <v>14.970400599351882</v>
+        <v>29.940801198703763</v>
       </c>
       <c r="FH3">
         <f t="shared" si="8"/>
-        <v>14.970401255513409</v>
+        <v>29.940802511026817</v>
       </c>
       <c r="FI3">
         <f t="shared" si="8"/>
-        <v>14.734309749035251</v>
+        <v>29.468619498070503</v>
       </c>
       <c r="FJ3">
         <f t="shared" ref="FJ3:GS3" si="9">$K$8*SIN(FJ1)</f>
-        <v>14.265849383881937</v>
+        <v>28.531698767763874</v>
       </c>
       <c r="FK3">
         <f t="shared" si="9"/>
-        <v>13.572408059604877</v>
+        <v>27.144816119209754</v>
       </c>
       <c r="FL3">
         <f t="shared" si="9"/>
-        <v>12.664921759757114</v>
+        <v>25.329843519514228</v>
       </c>
       <c r="FM3">
         <f t="shared" si="9"/>
-        <v>11.55770208490558</v>
+        <v>23.115404169811161</v>
       </c>
       <c r="FN3">
         <f t="shared" si="9"/>
-        <v>10.268210550148847</v>
+        <v>20.536421100297694</v>
       </c>
       <c r="FO3">
         <f t="shared" si="9"/>
-        <v>8.8167832066019542</v>
+        <v>17.633566413203908</v>
       </c>
       <c r="FP3">
         <f t="shared" si="9"/>
-        <v>7.2263099297334925</v>
+        <v>14.452619859466985</v>
       </c>
       <c r="FQ3">
         <f t="shared" si="9"/>
-        <v>5.5218734323676184</v>
+        <v>11.043746864735237</v>
       </c>
       <c r="FR3">
         <f t="shared" si="9"/>
-        <v>3.7303536953331542</v>
+        <v>7.4607073906663084</v>
       </c>
       <c r="FS3">
         <f t="shared" si="9"/>
-        <v>1.8800040541223715</v>
+        <v>3.760008108244743</v>
       </c>
       <c r="FT3">
         <f t="shared" si="9"/>
-        <v>5.6269282695384726E-6</v>
+        <v>1.1253856539076945E-5</v>
       </c>
       <c r="FU3">
         <f t="shared" si="9"/>
-        <v>-1.8799928890058497</v>
+        <v>-3.7599857780116994</v>
       </c>
       <c r="FV3">
         <f t="shared" si="9"/>
-        <v>-3.7303427950371488</v>
+        <v>-7.4606855900742977</v>
       </c>
       <c r="FW3">
         <f t="shared" si="9"/>
-        <v>-5.5218629687963565</v>
+        <v>-11.043725937592713</v>
       </c>
       <c r="FX3">
         <f t="shared" si="9"/>
-        <v>-7.2263000679037379</v>
+        <v>-14.452600135807476</v>
       </c>
       <c r="FY3">
         <f t="shared" si="9"/>
-        <v>-8.8167741020406911</v>
+        <v>-17.633548204081382</v>
       </c>
       <c r="FZ3">
         <f t="shared" si="9"/>
-        <v>-10.268202346440354</v>
+        <v>-20.536404692880708</v>
       </c>
       <c r="GA3">
         <f t="shared" si="9"/>
-        <v>-11.557694911427349</v>
+        <v>-23.115389822854699</v>
       </c>
       <c r="GB3">
         <f t="shared" si="9"/>
-        <v>-12.664915729639041</v>
+        <v>-25.329831459278083</v>
       </c>
       <c r="GC3">
         <f t="shared" si="9"/>
-        <v>-13.572403267945592</v>
+        <v>-27.144806535891185</v>
       </c>
       <c r="GD3">
         <f t="shared" si="9"/>
-        <v>-14.265845906248769</v>
+        <v>-28.531691812497538</v>
       </c>
       <c r="GE3">
         <f t="shared" si="9"/>
-        <v>-14.734307640272558</v>
+        <v>-29.468615280545116</v>
       </c>
       <c r="GF3">
         <f t="shared" si="9"/>
-        <v>-14.970400548877617</v>
+        <v>-29.940801097755234</v>
       </c>
       <c r="GG3">
         <f t="shared" si="9"/>
-        <v>-14.970401305987073</v>
+        <v>-29.940802611974146</v>
       </c>
       <c r="GH3">
         <f t="shared" si="9"/>
-        <v>-14.734309899660833</v>
+        <v>-29.468619799321665</v>
       </c>
       <c r="GI3">
         <f t="shared" si="9"/>
-        <v>-14.265849632284002</v>
+        <v>-28.531699264568005</v>
       </c>
       <c r="GJ3">
         <f t="shared" si="9"/>
-        <v>-13.572408401865966</v>
+        <v>-27.144816803731931</v>
       </c>
       <c r="GK3">
         <f t="shared" si="9"/>
-        <v>-12.664922190479537</v>
+        <v>-25.329844380959074</v>
       </c>
       <c r="GL3">
         <f t="shared" si="9"/>
-        <v>-11.557702597296645</v>
+        <v>-23.11540519459329</v>
       </c>
       <c r="GM3">
         <f t="shared" si="9"/>
-        <v>-10.268211136127812</v>
+        <v>-20.536422272255624</v>
       </c>
       <c r="GN3">
         <f t="shared" si="9"/>
-        <v>-8.8167838569275823</v>
+        <v>-17.633567713855165</v>
       </c>
       <c r="GO3">
         <f t="shared" si="9"/>
-        <v>-7.2263106341497112</v>
+        <v>-14.452621268299422</v>
       </c>
       <c r="GP3">
         <f t="shared" si="9"/>
-        <v>-5.5218741797654571</v>
+        <v>-11.043748359530914</v>
       </c>
       <c r="GQ3">
         <f t="shared" si="9"/>
-        <v>-3.7303544739256571</v>
+        <v>-7.4607089478513142</v>
       </c>
       <c r="GR3">
         <f t="shared" si="9"/>
-        <v>-1.8800048516306163</v>
+        <v>-3.7600097032612325</v>
       </c>
       <c r="GS3">
         <f t="shared" si="9"/>
-        <v>-6.4307751804126961E-6</v>
+        <v>-1.2861550360825392E-5</v>
       </c>
     </row>
     <row r="4" spans="1:201" x14ac:dyDescent="0.25">
@@ -6260,7 +6260,7 @@
         <v>4</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:201" x14ac:dyDescent="0.25">
